--- a/InputData/trans/AVLRaPTC/Annual Vehicle Licensing Registration and Property Tax Costs.xlsx
+++ b/InputData/trans/AVLRaPTC/Annual Vehicle Licensing Registration and Property Tax Costs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeff Rissman\CodeRepositories\eps-us\InputData\trans\AVLRaPTC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aaggarwal/Library/Containers/com.microsoft.Excel/Data/state-eps-data-repository/AZ/trans/AVLRaPTC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06D32A06-ED03-485E-BDB4-2BF12EEC6254}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{73574C1E-59C2-CF4A-A7AB-6EE36C12964D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33735" yWindow="675" windowWidth="21600" windowHeight="22305" xr2:uid="{AF599D04-C13D-45D7-BEF0-770B4B16FC27}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15980" xr2:uid="{AF599D04-C13D-45D7-BEF0-770B4B16FC27}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
   <si>
     <t>Sources:</t>
   </si>
@@ -140,6 +140,9 @@
   </si>
   <si>
     <t>AVLRaPTC Annual Vehicle Licensing Registration and Property Tax Costs</t>
+  </si>
+  <si>
+    <t>Arizona</t>
   </si>
 </sst>
 </file>
@@ -213,7 +216,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -230,6 +233,7 @@
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -545,21 +549,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FC3CD7F-A224-4C3A-9A5E-D38F07B136AE}">
-  <dimension ref="A1:B36"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="61.42578125" customWidth="1"/>
+    <col min="2" max="2" width="61.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="10">
+        <v>44634</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -567,62 +577,62 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" s="3">
         <v>2019</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B7" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B11" s="3">
         <v>2020</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B13" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
         <v>753</v>
       </c>
@@ -630,47 +640,47 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>31</v>
       </c>
@@ -678,7 +688,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="9">
         <v>0.5</v>
       </c>
@@ -686,7 +696,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="9">
         <v>2</v>
       </c>
@@ -694,7 +704,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="9">
         <v>1</v>
       </c>
@@ -702,12 +712,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>0.89800000000000002</v>
       </c>
@@ -734,13 +744,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.140625" customWidth="1"/>
-    <col min="2" max="3" width="12.28515625" customWidth="1"/>
+    <col min="1" max="1" width="16.1640625" customWidth="1"/>
+    <col min="2" max="3" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>21</v>
       </c>
@@ -751,7 +761,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
@@ -764,7 +774,7 @@
         <v>676.19399999999996</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>25</v>
       </c>
@@ -777,7 +787,7 @@
         <v>1352.3879999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>26</v>
       </c>
@@ -788,7 +798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>27</v>
       </c>
@@ -799,7 +809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>28</v>
       </c>
@@ -810,7 +820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>29</v>
       </c>
